--- a/resources/GSEA3/Notes_ApresRat.xlsx
+++ b/resources/GSEA3/Notes_ApresRat.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Documents\GINF2_2021_2022\XML\Projet_Gestion_Scolarite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GestionScolarite-XML\resources\GSEA3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF24010F-76E0-4165-992E-BBE35C2CF11E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26647FC-DA80-4D67-B79F-E08B0966C372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{335A8C19-2AA3-4ABA-B58B-0EDA2A5E21F3}"/>
   </bookViews>
@@ -161,9 +161,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -481,7 +482,7 @@
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -490,14 +491,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -525,13 +526,13 @@
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>19000031</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="2">
+        <v>17000021</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D2">
@@ -554,13 +555,13 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>19000032</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="2">
+        <v>17000022</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D3">
@@ -583,13 +584,13 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>19000033</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" s="2">
+        <v>17000023</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D4">
@@ -612,13 +613,13 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>19000034</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="A5" s="2">
+        <v>17000024</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D5">
@@ -641,13 +642,13 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>19000035</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="A6" s="2">
+        <v>17000025</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D6">
@@ -670,13 +671,13 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>19000036</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="A7" s="2">
+        <v>17000026</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D7">
@@ -699,13 +700,13 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>19000037</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="A8" s="2">
+        <v>17000027</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D8">
@@ -728,13 +729,13 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>19000038</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="A9" s="2">
+        <v>17000028</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D9">
@@ -757,13 +758,13 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>19000039</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="A10" s="2">
+        <v>17000029</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D10">
@@ -786,13 +787,13 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>19000040</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="A11" s="2">
+        <v>17000030</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D11">
